--- a/商城接口测试用例（完整）.xlsx
+++ b/商城接口测试用例（完整）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="skuList接口" sheetId="1" r:id="rId1"/>
@@ -107,27 +107,6 @@
     <t>skulist-2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取goodsId=1的商品sku信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功</t>
-    </r>
-  </si>
-  <si>
     <t>goodsId=1</t>
   </si>
   <si>
@@ -3186,6 +3165,22 @@
 city="杭州市"
 area="西湖区"
 transportFee=6.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取goodsId=1的商品sku信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3324,72 +3319,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFE9EDF4"/>
       <color rgb="FFD0D8E8"/>
@@ -3411,7 +3340,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3692,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3731,7 +3660,7 @@
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -3740,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -3757,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -3769,18 +3698,18 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -3792,18 +3721,18 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -3815,18 +3744,18 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -3838,10 +3767,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3894,232 +3823,232 @@
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4173,531 +4102,531 @@
     </row>
     <row r="2" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="99" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4726,7 +4655,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4746,10 +4675,10 @@
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -4761,13 +4690,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -4776,16 +4705,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -4794,16 +4723,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -4812,39 +4741,39 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -4853,54 +4782,54 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -4909,72 +4838,72 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -4983,72 +4912,72 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -5057,61 +4986,61 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
